--- a/bdd_excel/Jugements.xlsx
+++ b/bdd_excel/Jugements.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/florianbour/Desktop/ENSEIRB/2A/SGBD/sgbd-jeux/bdd_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69E7110C-016B-464A-A6F0-436A4768EFC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF6857C4-0608-CE4F-9116-64569B264B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16000" xr2:uid="{F2D48568-1043-CF4E-BD3E-7A895C5B1461}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -51,10 +51,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -80,8 +87,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B48E42AD-71A0-8A48-BA5D-67E7D05CA41A}">
-  <dimension ref="A1:D500"/>
+  <dimension ref="A1:D495"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -428,6 +436,9 @@
       <c r="C2">
         <v>1</v>
       </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -436,6 +447,9 @@
       <c r="B3">
         <v>41</v>
       </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
       <c r="D3">
         <v>1</v>
       </c>
@@ -450,6 +464,9 @@
       <c r="C4">
         <v>1</v>
       </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -461,6 +478,9 @@
       <c r="C5">
         <v>1</v>
       </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -469,6 +489,9 @@
       <c r="B6">
         <v>73</v>
       </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
       <c r="D6">
         <v>1</v>
       </c>
@@ -480,6 +503,9 @@
       <c r="B7">
         <v>12</v>
       </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
       <c r="D7">
         <v>1</v>
       </c>
@@ -491,6 +517,9 @@
       <c r="B8">
         <v>143</v>
       </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
       <c r="D8">
         <v>1</v>
       </c>
@@ -505,6 +534,9 @@
       <c r="C9">
         <v>1</v>
       </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -516,6 +548,9 @@
       <c r="C10">
         <v>1</v>
       </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -527,6 +562,9 @@
       <c r="C11">
         <v>1</v>
       </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -535,6 +573,9 @@
       <c r="B12">
         <v>47</v>
       </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
       <c r="D12">
         <v>1</v>
       </c>
@@ -546,6 +587,9 @@
       <c r="B13">
         <v>176</v>
       </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
       <c r="D13">
         <v>1</v>
       </c>
@@ -560,6 +604,9 @@
       <c r="C14">
         <v>1</v>
       </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -568,6 +615,9 @@
       <c r="B15">
         <v>38</v>
       </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
       <c r="D15">
         <v>1</v>
       </c>
@@ -582,6 +632,9 @@
       <c r="C16">
         <v>1</v>
       </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
@@ -590,6 +643,9 @@
       <c r="B17">
         <v>147</v>
       </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
       <c r="D17">
         <v>1</v>
       </c>
@@ -604,6 +660,9 @@
       <c r="C18">
         <v>1</v>
       </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
@@ -612,6 +671,9 @@
       <c r="B19">
         <v>246</v>
       </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
       <c r="D19">
         <v>1</v>
       </c>
@@ -623,6 +685,9 @@
       <c r="B20">
         <v>53</v>
       </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
       <c r="D20">
         <v>1</v>
       </c>
@@ -637,6 +702,9 @@
       <c r="C21">
         <v>1</v>
       </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
@@ -645,6 +713,9 @@
       <c r="B22">
         <v>95</v>
       </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
       <c r="D22">
         <v>1</v>
       </c>
@@ -656,6 +727,9 @@
       <c r="B23">
         <v>146</v>
       </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
       <c r="D23">
         <v>1</v>
       </c>
@@ -667,6 +741,9 @@
       <c r="B24">
         <v>20</v>
       </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
       <c r="D24">
         <v>1</v>
       </c>
@@ -678,6 +755,9 @@
       <c r="B25">
         <v>173</v>
       </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
       <c r="D25">
         <v>1</v>
       </c>
@@ -692,6 +772,9 @@
       <c r="C26">
         <v>1</v>
       </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
@@ -703,6 +786,9 @@
       <c r="C27">
         <v>1</v>
       </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
@@ -714,6 +800,9 @@
       <c r="C28">
         <v>1</v>
       </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
@@ -725,6 +814,9 @@
       <c r="C29">
         <v>1</v>
       </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
@@ -736,6 +828,9 @@
       <c r="C30">
         <v>1</v>
       </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
@@ -744,6 +839,9 @@
       <c r="B31">
         <v>28</v>
       </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
       <c r="D31">
         <v>1</v>
       </c>
@@ -758,6 +856,9 @@
       <c r="C32">
         <v>1</v>
       </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
@@ -769,35 +870,47 @@
       <c r="C33">
         <v>1</v>
       </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="B34">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="C34">
         <v>1</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B35">
-        <v>127</v>
+        <v>226</v>
       </c>
       <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="B36">
-        <v>226</v>
+        <v>176</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -805,76 +918,97 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="B37">
-        <v>176</v>
+        <v>126</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="B38">
-        <v>126</v>
+        <v>188</v>
       </c>
       <c r="C38">
         <v>1</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="B39">
-        <v>188</v>
+        <v>142</v>
       </c>
       <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B40">
-        <v>142</v>
+        <v>216</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B41">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C41">
         <v>1</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="B42">
-        <v>207</v>
+        <v>3</v>
       </c>
       <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>3</v>
+        <v>108</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -882,255 +1016,324 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B44">
-        <v>108</v>
+        <v>95</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B45">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B46">
-        <v>112</v>
+        <v>210</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B47">
-        <v>210</v>
+        <v>111</v>
       </c>
       <c r="C47">
         <v>1</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="B48">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="B49">
-        <v>161</v>
+        <v>19</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="B50">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C50">
         <v>1</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="B51">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="C51">
         <v>1</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="B52">
-        <v>105</v>
+        <v>215</v>
       </c>
       <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="B53">
-        <v>215</v>
+        <v>198</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="B54">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="B55">
-        <v>208</v>
+        <v>240</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="B56">
-        <v>240</v>
+        <v>90</v>
       </c>
       <c r="C56">
         <v>1</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B57">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C57">
         <v>1</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B58">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="C58">
         <v>1</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="B59">
-        <v>139</v>
+        <v>93</v>
       </c>
       <c r="C59">
         <v>1</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="B60">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="B61">
-        <v>98</v>
+        <v>175</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="B62">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="C62">
         <v>1</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B63">
-        <v>185</v>
+        <v>105</v>
       </c>
       <c r="C63">
         <v>1</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="B64">
-        <v>105</v>
+        <v>190</v>
       </c>
       <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="B65">
-        <v>190</v>
+        <v>100</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="B66">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="C66">
         <v>1</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -1138,73 +1341,94 @@
         <v>44</v>
       </c>
       <c r="B67">
-        <v>5</v>
+        <v>229</v>
       </c>
       <c r="C67">
         <v>1</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="B68">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C68">
         <v>1</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B69">
-        <v>221</v>
+        <v>180</v>
       </c>
       <c r="C69">
         <v>1</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="B70">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B71">
-        <v>144</v>
+        <v>2</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="B72">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="B73">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -1212,65 +1436,83 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B74">
-        <v>171</v>
+        <v>217</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="B75">
-        <v>217</v>
+        <v>183</v>
       </c>
       <c r="C75">
         <v>1</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="B76">
-        <v>183</v>
+        <v>220</v>
       </c>
       <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="B77">
-        <v>220</v>
+        <v>58</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
       </c>
       <c r="D77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="B78">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B79">
-        <v>107</v>
+        <v>78</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
       </c>
       <c r="D79">
         <v>1</v>
@@ -1278,10 +1520,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="B80">
-        <v>78</v>
+        <v>207</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
       </c>
       <c r="D80">
         <v>1</v>
@@ -1289,10 +1534,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="B81">
-        <v>207</v>
+        <v>145</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -1300,10 +1548,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>145</v>
+        <v>75</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
       </c>
       <c r="D82">
         <v>1</v>
@@ -1311,10 +1562,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B83">
-        <v>75</v>
+        <v>236</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
       </c>
       <c r="D83">
         <v>1</v>
@@ -1322,10 +1576,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B84">
-        <v>236</v>
+        <v>107</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
       </c>
       <c r="D84">
         <v>1</v>
@@ -1333,10 +1590,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B85">
-        <v>107</v>
+        <v>179</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
       </c>
       <c r="D85">
         <v>1</v>
@@ -1344,10 +1604,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="B86">
-        <v>179</v>
+        <v>64</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
       </c>
       <c r="D86">
         <v>1</v>
@@ -1355,10 +1618,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B87">
-        <v>64</v>
+        <v>229</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
       </c>
       <c r="D87">
         <v>1</v>
@@ -1366,54 +1632,69 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B88">
-        <v>229</v>
+        <v>59</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
       </c>
       <c r="D88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B89">
-        <v>59</v>
+        <v>122</v>
       </c>
       <c r="C89">
         <v>1</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="B90">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="C90">
         <v>1</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="B91">
-        <v>13</v>
+        <v>201</v>
       </c>
       <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="B92">
-        <v>201</v>
+        <v>146</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
       </c>
       <c r="D92">
         <v>1</v>
@@ -1421,98 +1702,125 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B93">
-        <v>146</v>
+        <v>117</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
       </c>
       <c r="D93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B94">
-        <v>117</v>
+        <v>230</v>
       </c>
       <c r="C94">
         <v>1</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="B95">
-        <v>230</v>
+        <v>92</v>
       </c>
       <c r="C95">
         <v>1</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="B96">
-        <v>92</v>
+        <v>197</v>
       </c>
       <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B97">
-        <v>197</v>
+        <v>97</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
       </c>
       <c r="D97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="B98">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="B99">
-        <v>122</v>
+        <v>120</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
       </c>
       <c r="D99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B100">
-        <v>120</v>
+        <v>195</v>
       </c>
       <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="B101">
-        <v>195</v>
+        <v>81</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
       </c>
       <c r="D101">
         <v>1</v>
@@ -1520,10 +1828,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B102">
-        <v>81</v>
+        <v>217</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
       </c>
       <c r="D102">
         <v>1</v>
@@ -1531,10 +1842,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B103">
-        <v>217</v>
+        <v>146</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
       </c>
       <c r="D103">
         <v>1</v>
@@ -1542,10 +1856,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B104">
-        <v>146</v>
+        <v>53</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
       </c>
       <c r="D104">
         <v>1</v>
@@ -1553,54 +1870,69 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="B105">
-        <v>53</v>
+        <v>209</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
       </c>
       <c r="D105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="B106">
-        <v>209</v>
+        <v>113</v>
       </c>
       <c r="C106">
         <v>1</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="B107">
-        <v>113</v>
+        <v>186</v>
       </c>
       <c r="C107">
         <v>1</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="B108">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108">
         <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="B109">
-        <v>177</v>
+        <v>98</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
       </c>
       <c r="D109">
         <v>1</v>
@@ -1608,10 +1940,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="B110">
-        <v>98</v>
+        <v>46</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
       </c>
       <c r="D110">
         <v>1</v>
@@ -1619,10 +1954,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="B111">
-        <v>46</v>
+        <v>36</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
       </c>
       <c r="D111">
         <v>1</v>
@@ -1630,10 +1968,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B112">
-        <v>36</v>
+        <v>65</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
       </c>
       <c r="D112">
         <v>1</v>
@@ -1641,10 +1982,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B113">
-        <v>65</v>
+        <v>162</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
       </c>
       <c r="D113">
         <v>1</v>
@@ -1652,10 +1996,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="B114">
-        <v>162</v>
+        <v>156</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
       </c>
       <c r="D114">
         <v>1</v>
@@ -1663,32 +2010,41 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B115">
-        <v>156</v>
+        <v>196</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
       </c>
       <c r="D115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B116">
-        <v>196</v>
+        <v>242</v>
       </c>
       <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
         <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="B117">
-        <v>242</v>
+        <v>122</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
       </c>
       <c r="D117">
         <v>1</v>
@@ -1696,35 +2052,44 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="B118">
-        <v>122</v>
+        <v>36</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
       </c>
       <c r="D118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="B119">
-        <v>36</v>
+        <v>220</v>
       </c>
       <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119">
         <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B120">
-        <v>220</v>
+        <v>242</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
       </c>
       <c r="D120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -1732,128 +2097,164 @@
         <v>26</v>
       </c>
       <c r="B121">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C121">
         <v>1</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="B122">
-        <v>236</v>
+        <v>162</v>
       </c>
       <c r="C122">
         <v>1</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="B123">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="C123">
         <v>1</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="B124">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C124">
         <v>1</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B125">
-        <v>183</v>
+        <v>16</v>
       </c>
       <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125">
         <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="B126">
-        <v>16</v>
+        <v>212</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
       </c>
       <c r="D126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="B127">
-        <v>212</v>
+        <v>81</v>
       </c>
       <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="D127">
         <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="B128">
-        <v>81</v>
+        <v>235</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
       </c>
       <c r="D128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="B129">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="C129">
         <v>1</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="B130">
-        <v>218</v>
+        <v>106</v>
       </c>
       <c r="C130">
         <v>1</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="B131">
-        <v>106</v>
+        <v>199</v>
       </c>
       <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="D131">
         <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B132">
-        <v>199</v>
+        <v>96</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
       </c>
       <c r="D132">
         <v>1</v>
@@ -1861,32 +2262,41 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="B133">
-        <v>96</v>
+        <v>140</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
       </c>
       <c r="D133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B134">
-        <v>140</v>
+        <v>249</v>
       </c>
       <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134">
         <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="B135">
-        <v>249</v>
+        <v>63</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
       </c>
       <c r="D135">
         <v>1</v>
@@ -1894,10 +2304,13 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="B136">
-        <v>63</v>
+        <v>123</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
       </c>
       <c r="D136">
         <v>1</v>
@@ -1905,10 +2318,13 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="B137">
-        <v>123</v>
+        <v>137</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
       </c>
       <c r="D137">
         <v>1</v>
@@ -1916,241 +2332,307 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="B138">
-        <v>137</v>
+        <v>49</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
       </c>
       <c r="D138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="B139">
-        <v>49</v>
+        <v>137</v>
       </c>
       <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139">
         <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="B140">
-        <v>137</v>
+        <v>42</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
       </c>
       <c r="D140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B141">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="C141">
         <v>1</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="B142">
-        <v>61</v>
+        <v>161</v>
       </c>
       <c r="C142">
         <v>1</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="B143">
-        <v>161</v>
+        <v>76</v>
       </c>
       <c r="C143">
         <v>1</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="B144">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="C144">
         <v>1</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="B145">
-        <v>162</v>
+        <v>209</v>
       </c>
       <c r="C145">
         <v>1</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="B146">
-        <v>209</v>
+        <v>151</v>
       </c>
       <c r="C146">
         <v>1</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B147">
-        <v>151</v>
+        <v>69</v>
       </c>
       <c r="C147">
+        <v>0</v>
+      </c>
+      <c r="D147">
         <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="B148">
-        <v>69</v>
+        <v>222</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
       </c>
       <c r="D148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="B149">
-        <v>222</v>
+        <v>158</v>
       </c>
       <c r="C149">
         <v>1</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="B150">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="C150">
         <v>1</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="B151">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C151">
         <v>1</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B152">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="C152">
+        <v>0</v>
+      </c>
+      <c r="D152">
         <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="B153">
-        <v>145</v>
+        <v>67</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
       </c>
       <c r="D153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B154">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="C154">
         <v>1</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B155">
-        <v>14</v>
+        <v>236</v>
       </c>
       <c r="C155">
         <v>1</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="B156">
-        <v>235</v>
+        <v>176</v>
       </c>
       <c r="C156">
         <v>1</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="B157">
-        <v>236</v>
+        <v>142</v>
       </c>
       <c r="C157">
+        <v>0</v>
+      </c>
+      <c r="D157">
         <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="B158">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C158">
+        <v>0</v>
+      </c>
+      <c r="D158">
         <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="B159">
-        <v>142</v>
+        <v>127</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
       </c>
       <c r="D159">
         <v>1</v>
@@ -2158,10 +2640,13 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B160">
-        <v>167</v>
+        <v>199</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
       </c>
       <c r="D160">
         <v>1</v>
@@ -2169,21 +2654,27 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B161">
-        <v>127</v>
+        <v>84</v>
+      </c>
+      <c r="C161">
+        <v>1</v>
       </c>
       <c r="D161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="B162">
-        <v>199</v>
+        <v>111</v>
+      </c>
+      <c r="C162">
+        <v>0</v>
       </c>
       <c r="D162">
         <v>1</v>
@@ -2191,21 +2682,27 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B163">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="C163">
+        <v>0</v>
+      </c>
+      <c r="D163">
         <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="B164">
-        <v>111</v>
+        <v>10</v>
+      </c>
+      <c r="C164">
+        <v>0</v>
       </c>
       <c r="D164">
         <v>1</v>
@@ -2213,10 +2710,13 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="B165">
-        <v>117</v>
+        <v>36</v>
+      </c>
+      <c r="C165">
+        <v>0</v>
       </c>
       <c r="D165">
         <v>1</v>
@@ -2224,54 +2724,69 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="B166">
-        <v>10</v>
+        <v>111</v>
+      </c>
+      <c r="C166">
+        <v>1</v>
       </c>
       <c r="D166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="B167">
-        <v>36</v>
+        <v>13</v>
+      </c>
+      <c r="C167">
+        <v>1</v>
       </c>
       <c r="D167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="B168">
-        <v>111</v>
+        <v>237</v>
       </c>
       <c r="C168">
+        <v>0</v>
+      </c>
+      <c r="D168">
         <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B169">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="C169">
         <v>1</v>
+      </c>
+      <c r="D169">
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B170">
-        <v>237</v>
+        <v>185</v>
+      </c>
+      <c r="C170">
+        <v>0</v>
       </c>
       <c r="D170">
         <v>1</v>
@@ -2279,54 +2794,69 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B171">
-        <v>58</v>
+        <v>218</v>
       </c>
       <c r="C171">
         <v>1</v>
+      </c>
+      <c r="D171">
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="B172">
-        <v>185</v>
+        <v>114</v>
+      </c>
+      <c r="C172">
+        <v>1</v>
       </c>
       <c r="D172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B173">
-        <v>218</v>
+        <v>140</v>
       </c>
       <c r="C173">
+        <v>0</v>
+      </c>
+      <c r="D173">
         <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="B174">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="C174">
         <v>1</v>
+      </c>
+      <c r="D174">
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B175">
-        <v>140</v>
+        <v>201</v>
+      </c>
+      <c r="C175">
+        <v>0</v>
       </c>
       <c r="D175">
         <v>1</v>
@@ -2334,21 +2864,27 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="B176">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C176">
         <v>1</v>
+      </c>
+      <c r="D176">
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B177">
-        <v>201</v>
+        <v>59</v>
+      </c>
+      <c r="C177">
+        <v>0</v>
       </c>
       <c r="D177">
         <v>1</v>
@@ -2356,10 +2892,13 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="B178">
-        <v>42</v>
+        <v>150</v>
+      </c>
+      <c r="C178">
+        <v>0</v>
       </c>
       <c r="D178">
         <v>1</v>
@@ -2367,21 +2906,27 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="B179">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C179">
         <v>1</v>
+      </c>
+      <c r="D179">
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="B180">
-        <v>59</v>
+        <v>52</v>
+      </c>
+      <c r="C180">
+        <v>0</v>
       </c>
       <c r="D180">
         <v>1</v>
@@ -2389,32 +2934,41 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="B181">
-        <v>150</v>
+        <v>59</v>
+      </c>
+      <c r="C181">
+        <v>1</v>
       </c>
       <c r="D181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182">
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="B182">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="C182">
         <v>1</v>
+      </c>
+      <c r="D182">
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B183">
-        <v>52</v>
+        <v>28</v>
+      </c>
+      <c r="C183">
+        <v>0</v>
       </c>
       <c r="D183">
         <v>1</v>
@@ -2422,32 +2976,41 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="B184">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="C184">
         <v>1</v>
+      </c>
+      <c r="D184">
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B185">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="C185">
         <v>1</v>
+      </c>
+      <c r="D185">
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="B186">
-        <v>28</v>
+        <v>52</v>
+      </c>
+      <c r="C186">
+        <v>0</v>
       </c>
       <c r="D186">
         <v>1</v>
@@ -2455,175 +3018,223 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B187">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="C187">
         <v>1</v>
+      </c>
+      <c r="D187">
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B188">
-        <v>105</v>
+        <v>44</v>
       </c>
       <c r="C188">
         <v>1</v>
+      </c>
+      <c r="D188">
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B189">
-        <v>52</v>
+        <v>58</v>
+      </c>
+      <c r="C189">
+        <v>1</v>
       </c>
       <c r="D189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B190">
-        <v>47</v>
+        <v>124</v>
       </c>
       <c r="C190">
+        <v>0</v>
+      </c>
+      <c r="D190">
         <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B191">
-        <v>44</v>
+        <v>229</v>
       </c>
       <c r="C191">
         <v>1</v>
+      </c>
+      <c r="D191">
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B192">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="C192">
         <v>1</v>
+      </c>
+      <c r="D192">
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B193">
-        <v>124</v>
+        <v>225</v>
+      </c>
+      <c r="C193">
+        <v>1</v>
       </c>
       <c r="D193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="B194">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="C194">
+        <v>0</v>
+      </c>
+      <c r="D194">
         <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="B195">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="C195">
         <v>1</v>
+      </c>
+      <c r="D195">
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B196">
-        <v>225</v>
+        <v>14</v>
       </c>
       <c r="C196">
         <v>1</v>
+      </c>
+      <c r="D196">
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="B197">
-        <v>200</v>
+        <v>137</v>
+      </c>
+      <c r="C197">
+        <v>1</v>
       </c>
       <c r="D197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B198">
-        <v>61</v>
+        <v>236</v>
       </c>
       <c r="C198">
         <v>1</v>
+      </c>
+      <c r="D198">
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="B199">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C199">
+        <v>0</v>
+      </c>
+      <c r="D199">
         <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="B200">
-        <v>137</v>
+        <v>181</v>
       </c>
       <c r="C200">
         <v>1</v>
+      </c>
+      <c r="D200">
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B201">
-        <v>236</v>
+        <v>72</v>
       </c>
       <c r="C201">
         <v>1</v>
+      </c>
+      <c r="D201">
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="B202">
-        <v>34</v>
+        <v>104</v>
+      </c>
+      <c r="C202">
+        <v>0</v>
       </c>
       <c r="D202">
         <v>1</v>
@@ -2631,230 +3242,293 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="B203">
-        <v>181</v>
+        <v>44</v>
       </c>
       <c r="C203">
         <v>1</v>
+      </c>
+      <c r="D203">
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="B204">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="C204">
         <v>1</v>
+      </c>
+      <c r="D204">
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="B205">
-        <v>104</v>
+        <v>221</v>
+      </c>
+      <c r="C205">
+        <v>1</v>
       </c>
       <c r="D205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="B206">
-        <v>44</v>
+        <v>148</v>
       </c>
       <c r="C206">
         <v>1</v>
+      </c>
+      <c r="D206">
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="B207">
-        <v>19</v>
+        <v>114</v>
       </c>
       <c r="C207">
         <v>1</v>
+      </c>
+      <c r="D207">
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B208">
-        <v>221</v>
+        <v>120</v>
       </c>
       <c r="C208">
         <v>1</v>
+      </c>
+      <c r="D208">
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="B209">
-        <v>148</v>
+        <v>16</v>
       </c>
       <c r="C209">
+        <v>0</v>
+      </c>
+      <c r="D209">
         <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="B210">
-        <v>114</v>
+        <v>63</v>
       </c>
       <c r="C210">
         <v>1</v>
+      </c>
+      <c r="D210">
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="B211">
-        <v>120</v>
+        <v>243</v>
       </c>
       <c r="C211">
         <v>1</v>
+      </c>
+      <c r="D211">
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="B212">
-        <v>16</v>
+        <v>232</v>
+      </c>
+      <c r="C212">
+        <v>1</v>
       </c>
       <c r="D212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="B213">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C213">
         <v>1</v>
+      </c>
+      <c r="D213">
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B214">
-        <v>243</v>
+        <v>25</v>
       </c>
       <c r="C214">
         <v>1</v>
+      </c>
+      <c r="D214">
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="B215">
-        <v>232</v>
+        <v>25</v>
       </c>
       <c r="C215">
         <v>1</v>
+      </c>
+      <c r="D215">
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="B216">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C216">
         <v>1</v>
+      </c>
+      <c r="D216">
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="B217">
-        <v>25</v>
+        <v>204</v>
       </c>
       <c r="C217">
         <v>1</v>
+      </c>
+      <c r="D217">
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="B218">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C218">
+        <v>0</v>
+      </c>
+      <c r="D218">
         <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="B219">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C219">
+        <v>0</v>
+      </c>
+      <c r="D219">
         <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220">
-        <v>91</v>
+        <v>5</v>
       </c>
       <c r="B220">
-        <v>204</v>
+        <v>161</v>
       </c>
       <c r="C220">
+        <v>0</v>
+      </c>
+      <c r="D220">
         <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B221">
-        <v>30</v>
+        <v>175</v>
+      </c>
+      <c r="C221">
+        <v>1</v>
       </c>
       <c r="D221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="B222">
-        <v>44</v>
+        <v>121</v>
+      </c>
+      <c r="C222">
+        <v>1</v>
       </c>
       <c r="D222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B223">
-        <v>161</v>
+        <v>27</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
       </c>
       <c r="D223">
         <v>1</v>
@@ -2862,43 +3536,55 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="B224">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C224">
+        <v>0</v>
+      </c>
+      <c r="D224">
         <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="B225">
-        <v>121</v>
+        <v>189</v>
       </c>
       <c r="C225">
+        <v>0</v>
+      </c>
+      <c r="D225">
         <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="B226">
-        <v>27</v>
+        <v>122</v>
+      </c>
+      <c r="C226">
+        <v>1</v>
       </c>
       <c r="D226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="B227">
-        <v>179</v>
+        <v>27</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
       </c>
       <c r="D227">
         <v>1</v>
@@ -2906,10 +3592,13 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B228">
-        <v>189</v>
+        <v>234</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
       </c>
       <c r="D228">
         <v>1</v>
@@ -2917,21 +3606,27 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="B229">
-        <v>122</v>
+        <v>173</v>
       </c>
       <c r="C229">
+        <v>0</v>
+      </c>
+      <c r="D229">
         <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="B230">
-        <v>27</v>
+        <v>13</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
       </c>
       <c r="D230">
         <v>1</v>
@@ -2939,32 +3634,41 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B231">
-        <v>234</v>
+        <v>106</v>
+      </c>
+      <c r="C231">
+        <v>1</v>
       </c>
       <c r="D231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B232">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="C232">
+        <v>0</v>
+      </c>
+      <c r="D232">
         <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="B233">
-        <v>173</v>
+        <v>135</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
       </c>
       <c r="D233">
         <v>1</v>
@@ -2972,10 +3676,13 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234">
-        <v>2</v>
+        <v>96</v>
       </c>
       <c r="B234">
-        <v>13</v>
+        <v>213</v>
+      </c>
+      <c r="C234">
+        <v>0</v>
       </c>
       <c r="D234">
         <v>1</v>
@@ -2983,21 +3690,27 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="B235">
-        <v>106</v>
+        <v>181</v>
       </c>
       <c r="C235">
         <v>1</v>
+      </c>
+      <c r="D235">
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B236">
-        <v>25</v>
+        <v>44</v>
+      </c>
+      <c r="C236">
+        <v>0</v>
       </c>
       <c r="D236">
         <v>1</v>
@@ -3005,112 +3718,142 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="B237">
-        <v>135</v>
+        <v>112</v>
+      </c>
+      <c r="C237">
+        <v>1</v>
       </c>
       <c r="D237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="B238">
-        <v>213</v>
+        <v>226</v>
+      </c>
+      <c r="C238">
+        <v>1</v>
       </c>
       <c r="D238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B239">
-        <v>181</v>
+        <v>121</v>
       </c>
       <c r="C239">
         <v>1</v>
+      </c>
+      <c r="D239">
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="B240">
-        <v>44</v>
+        <v>235</v>
+      </c>
+      <c r="C240">
+        <v>1</v>
       </c>
       <c r="D240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B241">
-        <v>112</v>
+        <v>28</v>
       </c>
       <c r="C241">
         <v>1</v>
+      </c>
+      <c r="D241">
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="B242">
-        <v>226</v>
+        <v>25</v>
       </c>
       <c r="C242">
         <v>1</v>
+      </c>
+      <c r="D242">
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="B243">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="C243">
         <v>1</v>
+      </c>
+      <c r="D243">
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="B244">
-        <v>235</v>
+        <v>169</v>
       </c>
       <c r="C244">
+        <v>0</v>
+      </c>
+      <c r="D244">
         <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B245">
-        <v>28</v>
+        <v>170</v>
       </c>
       <c r="C245">
         <v>1</v>
+      </c>
+      <c r="D245">
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B246">
-        <v>25</v>
+        <v>211</v>
       </c>
       <c r="C246">
         <v>1</v>
+      </c>
+      <c r="D246">
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
@@ -3118,106 +3861,136 @@
         <v>64</v>
       </c>
       <c r="B247">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="C247">
         <v>1</v>
+      </c>
+      <c r="D247">
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="B248">
-        <v>169</v>
+        <v>227</v>
+      </c>
+      <c r="C248">
+        <v>1</v>
       </c>
       <c r="D248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="B249">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="C249">
         <v>1</v>
+      </c>
+      <c r="D249">
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="B250">
-        <v>211</v>
+        <v>111</v>
       </c>
       <c r="C250">
         <v>1</v>
+      </c>
+      <c r="D250">
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="B251">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C251">
         <v>1</v>
+      </c>
+      <c r="D251">
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="B252">
-        <v>227</v>
+        <v>160</v>
       </c>
       <c r="C252">
+        <v>0</v>
+      </c>
+      <c r="D252">
         <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B253">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="C253">
+        <v>0</v>
+      </c>
+      <c r="D253">
         <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B254">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C254">
         <v>1</v>
+      </c>
+      <c r="D254">
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B255">
-        <v>93</v>
+        <v>236</v>
       </c>
       <c r="C255">
         <v>1</v>
+      </c>
+      <c r="D255">
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="B256">
-        <v>160</v>
+        <v>129</v>
+      </c>
+      <c r="C256">
+        <v>0</v>
       </c>
       <c r="D256">
         <v>1</v>
@@ -3225,175 +3998,223 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="B257">
-        <v>79</v>
+        <v>183</v>
+      </c>
+      <c r="C257">
+        <v>1</v>
       </c>
       <c r="D257">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="B258">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="C258">
         <v>1</v>
+      </c>
+      <c r="D258">
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="B259">
-        <v>236</v>
+        <v>16</v>
       </c>
       <c r="C259">
         <v>1</v>
+      </c>
+      <c r="D259">
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="B260">
-        <v>129</v>
+        <v>141</v>
+      </c>
+      <c r="C260">
+        <v>1</v>
       </c>
       <c r="D260">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="B261">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="C261">
         <v>1</v>
+      </c>
+      <c r="D261">
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B262">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="C262">
         <v>1</v>
+      </c>
+      <c r="D262">
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="B263">
-        <v>16</v>
+        <v>244</v>
       </c>
       <c r="C263">
         <v>1</v>
+      </c>
+      <c r="D263">
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B264">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="C264">
         <v>1</v>
+      </c>
+      <c r="D264">
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="B265">
-        <v>224</v>
+        <v>85</v>
       </c>
       <c r="C265">
         <v>1</v>
+      </c>
+      <c r="D265" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="B266">
-        <v>107</v>
+        <v>221</v>
       </c>
       <c r="C266">
+        <v>0</v>
+      </c>
+      <c r="D266">
         <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B267">
-        <v>244</v>
+        <v>47</v>
       </c>
       <c r="C267">
         <v>1</v>
+      </c>
+      <c r="D267" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="B268">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="C268">
+        <v>0</v>
+      </c>
+      <c r="D268">
         <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="B269">
-        <v>85</v>
+        <v>244</v>
       </c>
       <c r="C269">
         <v>1</v>
+      </c>
+      <c r="D269" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="B270">
-        <v>221</v>
-      </c>
-      <c r="D270">
-        <v>1</v>
+        <v>145</v>
+      </c>
+      <c r="C270">
+        <v>1</v>
+      </c>
+      <c r="D270" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="B271">
-        <v>47</v>
+        <v>249</v>
       </c>
       <c r="C271">
         <v>1</v>
+      </c>
+      <c r="D271" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B272">
-        <v>39</v>
+        <v>36</v>
+      </c>
+      <c r="C272">
+        <v>0</v>
       </c>
       <c r="D272">
         <v>1</v>
@@ -3401,43 +4222,55 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="B273">
-        <v>244</v>
+        <v>74</v>
       </c>
       <c r="C273">
         <v>1</v>
+      </c>
+      <c r="D273" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="B274">
-        <v>145</v>
+        <v>214</v>
       </c>
       <c r="C274">
         <v>1</v>
+      </c>
+      <c r="D274" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="B275">
-        <v>249</v>
+        <v>68</v>
       </c>
       <c r="C275">
+        <v>0</v>
+      </c>
+      <c r="D275">
         <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B276">
-        <v>36</v>
+        <v>231</v>
+      </c>
+      <c r="C276">
+        <v>0</v>
       </c>
       <c r="D276">
         <v>1</v>
@@ -3445,32 +4278,41 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="B277">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="C277">
         <v>1</v>
+      </c>
+      <c r="D277" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B278">
-        <v>214</v>
+        <v>15</v>
       </c>
       <c r="C278">
         <v>1</v>
+      </c>
+      <c r="D278" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="B279">
-        <v>68</v>
+        <v>101</v>
+      </c>
+      <c r="C279">
+        <v>0</v>
       </c>
       <c r="D279">
         <v>1</v>
@@ -3478,43 +4320,55 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="B280">
-        <v>231</v>
-      </c>
-      <c r="D280">
-        <v>1</v>
+        <v>174</v>
+      </c>
+      <c r="C280">
+        <v>1</v>
+      </c>
+      <c r="D280" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="B281">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="C281">
         <v>1</v>
+      </c>
+      <c r="D281" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="B282">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="C282">
         <v>1</v>
+      </c>
+      <c r="D282" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="B283">
-        <v>101</v>
+        <v>36</v>
+      </c>
+      <c r="C283">
+        <v>0</v>
       </c>
       <c r="D283">
         <v>1</v>
@@ -3522,54 +4376,69 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="B284">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C284">
+        <v>0</v>
+      </c>
+      <c r="D284">
         <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="B285">
-        <v>174</v>
+        <v>88</v>
       </c>
       <c r="C285">
         <v>1</v>
+      </c>
+      <c r="D285" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="B286">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="C286">
         <v>1</v>
+      </c>
+      <c r="D286" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="B287">
-        <v>79</v>
+        <v>222</v>
       </c>
       <c r="C287">
         <v>1</v>
+      </c>
+      <c r="D287" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="B288">
-        <v>36</v>
+        <v>197</v>
+      </c>
+      <c r="C288">
+        <v>0</v>
       </c>
       <c r="D288">
         <v>1</v>
@@ -3577,87 +4446,111 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289">
-        <v>95</v>
+        <v>6</v>
       </c>
       <c r="B289">
-        <v>175</v>
-      </c>
-      <c r="D289">
-        <v>1</v>
+        <v>208</v>
+      </c>
+      <c r="C289">
+        <v>1</v>
+      </c>
+      <c r="D289" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="B290">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="C290">
+        <v>0</v>
+      </c>
+      <c r="D290">
         <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="B291">
-        <v>100</v>
+        <v>228</v>
       </c>
       <c r="C291">
+        <v>0</v>
+      </c>
+      <c r="D291">
         <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B292">
-        <v>222</v>
+        <v>21</v>
       </c>
       <c r="C292">
+        <v>0</v>
+      </c>
+      <c r="D292">
         <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B293">
-        <v>197</v>
-      </c>
-      <c r="D293">
-        <v>1</v>
+        <v>94</v>
+      </c>
+      <c r="C293">
+        <v>1</v>
+      </c>
+      <c r="D293" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B294">
-        <v>208</v>
+        <v>136</v>
       </c>
       <c r="C294">
+        <v>0</v>
+      </c>
+      <c r="D294">
         <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="B295">
-        <v>23</v>
-      </c>
-      <c r="D295">
-        <v>1</v>
+        <v>85</v>
+      </c>
+      <c r="C295">
+        <v>1</v>
+      </c>
+      <c r="D295" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="B296">
-        <v>228</v>
+        <v>239</v>
+      </c>
+      <c r="C296">
+        <v>0</v>
       </c>
       <c r="D296">
         <v>1</v>
@@ -3665,76 +4558,97 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="B297">
-        <v>21</v>
-      </c>
-      <c r="D297">
-        <v>1</v>
+        <v>190</v>
+      </c>
+      <c r="C297">
+        <v>1</v>
+      </c>
+      <c r="D297" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="B298">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="C298">
+        <v>0</v>
+      </c>
+      <c r="D298">
         <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="B299">
-        <v>136</v>
-      </c>
-      <c r="D299">
-        <v>1</v>
+        <v>181</v>
+      </c>
+      <c r="C299">
+        <v>1</v>
+      </c>
+      <c r="D299" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="B300">
-        <v>85</v>
+        <v>149</v>
       </c>
       <c r="C300">
         <v>1</v>
+      </c>
+      <c r="D300" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="B301">
-        <v>239</v>
-      </c>
-      <c r="D301">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="C301">
+        <v>1</v>
+      </c>
+      <c r="D301" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="B302">
-        <v>190</v>
+        <v>33</v>
       </c>
       <c r="C302">
         <v>1</v>
+      </c>
+      <c r="D302" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B303">
-        <v>113</v>
+        <v>86</v>
+      </c>
+      <c r="C303">
+        <v>0</v>
       </c>
       <c r="D303">
         <v>1</v>
@@ -3742,98 +4656,125 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="B304">
-        <v>181</v>
+        <v>8</v>
       </c>
       <c r="C304">
         <v>1</v>
+      </c>
+      <c r="D304" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="B305">
-        <v>149</v>
+        <v>207</v>
       </c>
       <c r="C305">
         <v>1</v>
+      </c>
+      <c r="D305" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="B306">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="C306">
         <v>1</v>
+      </c>
+      <c r="D306" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="B307">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="C307">
+        <v>0</v>
+      </c>
+      <c r="D307">
         <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="B308">
-        <v>86</v>
-      </c>
-      <c r="D308">
-        <v>1</v>
+        <v>248</v>
+      </c>
+      <c r="C308">
+        <v>1</v>
+      </c>
+      <c r="D308" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="B309">
-        <v>8</v>
+        <v>140</v>
       </c>
       <c r="C309">
         <v>1</v>
+      </c>
+      <c r="D309" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B310">
-        <v>207</v>
+        <v>100</v>
       </c>
       <c r="C310">
         <v>1</v>
+      </c>
+      <c r="D310" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="B311">
-        <v>68</v>
+        <v>200</v>
       </c>
       <c r="C311">
         <v>1</v>
+      </c>
+      <c r="D311" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="B312">
-        <v>78</v>
+        <v>163</v>
+      </c>
+      <c r="C312">
+        <v>0</v>
       </c>
       <c r="D312">
         <v>1</v>
@@ -3841,35 +4782,44 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B313">
-        <v>248</v>
+        <v>151</v>
       </c>
       <c r="C313">
         <v>1</v>
+      </c>
+      <c r="D313" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="B314">
-        <v>140</v>
+        <v>236</v>
       </c>
       <c r="C314">
         <v>1</v>
+      </c>
+      <c r="D314" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="B315">
-        <v>100</v>
+        <v>225</v>
       </c>
       <c r="C315">
         <v>1</v>
+      </c>
+      <c r="D315" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.2">
@@ -3877,18 +4827,24 @@
         <v>69</v>
       </c>
       <c r="B316">
-        <v>200</v>
+        <v>117</v>
       </c>
       <c r="C316">
+        <v>0</v>
+      </c>
+      <c r="D316">
         <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A317">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B317">
-        <v>163</v>
+        <v>1</v>
+      </c>
+      <c r="C317">
+        <v>0</v>
       </c>
       <c r="D317">
         <v>1</v>
@@ -3896,54 +4852,69 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="B318">
-        <v>151</v>
+        <v>193</v>
       </c>
       <c r="C318">
         <v>1</v>
+      </c>
+      <c r="D318" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B319">
-        <v>236</v>
+        <v>185</v>
       </c>
       <c r="C319">
+        <v>0</v>
+      </c>
+      <c r="D319">
         <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A320">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="B320">
-        <v>225</v>
+        <v>40</v>
       </c>
       <c r="C320">
         <v>1</v>
+      </c>
+      <c r="D320" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A321">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="B321">
-        <v>117</v>
-      </c>
-      <c r="D321">
-        <v>1</v>
+        <v>207</v>
+      </c>
+      <c r="C321">
+        <v>1</v>
+      </c>
+      <c r="D321" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A322">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B322">
-        <v>1</v>
+        <v>28</v>
+      </c>
+      <c r="C322">
+        <v>0</v>
       </c>
       <c r="D322">
         <v>1</v>
@@ -3951,197 +4922,251 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A323">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B323">
-        <v>193</v>
+        <v>239</v>
       </c>
       <c r="C323">
+        <v>0</v>
+      </c>
+      <c r="D323">
         <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A324">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B324">
-        <v>185</v>
-      </c>
-      <c r="D324">
-        <v>1</v>
+        <v>202</v>
+      </c>
+      <c r="C324">
+        <v>1</v>
+      </c>
+      <c r="D324" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A325">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B325">
-        <v>40</v>
+        <v>161</v>
       </c>
       <c r="C325">
+        <v>0</v>
+      </c>
+      <c r="D325">
         <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A326">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B326">
-        <v>207</v>
+        <v>99</v>
       </c>
       <c r="C326">
+        <v>0</v>
+      </c>
+      <c r="D326">
         <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A327">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="B327">
-        <v>28</v>
-      </c>
-      <c r="D327">
-        <v>1</v>
+        <v>140</v>
+      </c>
+      <c r="C327">
+        <v>1</v>
+      </c>
+      <c r="D327" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="B328">
-        <v>239</v>
-      </c>
-      <c r="D328">
-        <v>1</v>
+        <v>82</v>
+      </c>
+      <c r="C328">
+        <v>1</v>
+      </c>
+      <c r="D328" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A329">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B329">
-        <v>202</v>
+        <v>143</v>
       </c>
       <c r="C329">
         <v>1</v>
+      </c>
+      <c r="D329" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A330">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B330">
-        <v>161</v>
-      </c>
-      <c r="D330">
-        <v>1</v>
+        <v>123</v>
+      </c>
+      <c r="C330">
+        <v>1</v>
+      </c>
+      <c r="D330" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A331">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B331">
-        <v>99</v>
-      </c>
-      <c r="D331">
-        <v>1</v>
+        <v>81</v>
+      </c>
+      <c r="C331">
+        <v>1</v>
+      </c>
+      <c r="D331" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A332">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="B332">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="C332">
         <v>1</v>
+      </c>
+      <c r="D332" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A333">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="B333">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="C333">
         <v>1</v>
+      </c>
+      <c r="D333" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A334">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="B334">
-        <v>143</v>
+        <v>201</v>
       </c>
       <c r="C334">
         <v>1</v>
+      </c>
+      <c r="D334" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A335">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="B335">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="C335">
+        <v>0</v>
+      </c>
+      <c r="D335">
         <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A336">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="B336">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="C336">
         <v>1</v>
+      </c>
+      <c r="D336" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A337">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B337">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="C337">
         <v>1</v>
+      </c>
+      <c r="D337" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A338">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="B338">
-        <v>54</v>
+        <v>233</v>
       </c>
       <c r="C338">
         <v>1</v>
+      </c>
+      <c r="D338" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A339">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="B339">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="C339">
+        <v>0</v>
+      </c>
+      <c r="D339">
         <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A340">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B340">
-        <v>152</v>
+        <v>160</v>
+      </c>
+      <c r="C340">
+        <v>0</v>
       </c>
       <c r="D340">
         <v>1</v>
@@ -4149,142 +5174,181 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A341">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B341">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C341">
         <v>1</v>
+      </c>
+      <c r="D341" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A342">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="B342">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="C342">
         <v>1</v>
+      </c>
+      <c r="D342" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A343">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="B343">
-        <v>233</v>
+        <v>122</v>
       </c>
       <c r="C343">
         <v>1</v>
+      </c>
+      <c r="D343" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A344">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="B344">
-        <v>208</v>
-      </c>
-      <c r="D344">
-        <v>1</v>
+        <v>204</v>
+      </c>
+      <c r="C344">
+        <v>1</v>
+      </c>
+      <c r="D344" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A345">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="B345">
-        <v>160</v>
-      </c>
-      <c r="D345">
-        <v>1</v>
+        <v>128</v>
+      </c>
+      <c r="C345">
+        <v>1</v>
+      </c>
+      <c r="D345" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A346">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="B346">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="C346">
         <v>1</v>
+      </c>
+      <c r="D346" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="B347">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="C347">
         <v>1</v>
+      </c>
+      <c r="D347" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B348">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="C348">
+        <v>0</v>
+      </c>
+      <c r="D348">
         <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="B349">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="C349">
+        <v>0</v>
+      </c>
+      <c r="D349">
         <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="B350">
-        <v>128</v>
+        <v>69</v>
       </c>
       <c r="C350">
+        <v>0</v>
+      </c>
+      <c r="D350">
         <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="B351">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="C351">
+        <v>0</v>
+      </c>
+      <c r="D351">
         <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="B352">
-        <v>85</v>
+        <v>179</v>
       </c>
       <c r="C352">
         <v>1</v>
+      </c>
+      <c r="D352" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B353">
-        <v>18</v>
+        <v>25</v>
+      </c>
+      <c r="C353">
+        <v>0</v>
       </c>
       <c r="D353">
         <v>1</v>
@@ -4292,54 +5356,69 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="B354">
-        <v>231</v>
-      </c>
-      <c r="D354">
-        <v>1</v>
+        <v>99</v>
+      </c>
+      <c r="C354">
+        <v>1</v>
+      </c>
+      <c r="D354" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="B355">
-        <v>69</v>
-      </c>
-      <c r="D355">
-        <v>1</v>
+        <v>134</v>
+      </c>
+      <c r="C355">
+        <v>1</v>
+      </c>
+      <c r="D355" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="B356">
-        <v>43</v>
-      </c>
-      <c r="D356">
-        <v>1</v>
+        <v>225</v>
+      </c>
+      <c r="C356">
+        <v>1</v>
+      </c>
+      <c r="D356" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="B357">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="C357">
+        <v>0</v>
+      </c>
+      <c r="D357">
         <v>1</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="B358">
-        <v>25</v>
+        <v>53</v>
+      </c>
+      <c r="C358">
+        <v>0</v>
       </c>
       <c r="D358">
         <v>1</v>
@@ -4347,43 +5426,55 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="B359">
-        <v>99</v>
+        <v>224</v>
       </c>
       <c r="C359">
         <v>1</v>
+      </c>
+      <c r="D359" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B360">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="C360">
         <v>1</v>
+      </c>
+      <c r="D360" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B361">
-        <v>225</v>
+        <v>26</v>
       </c>
       <c r="C361">
+        <v>0</v>
+      </c>
+      <c r="D361">
         <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="B362">
-        <v>210</v>
+        <v>209</v>
+      </c>
+      <c r="C362">
+        <v>0</v>
       </c>
       <c r="D362">
         <v>1</v>
@@ -4391,10 +5482,13 @@
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="B363">
-        <v>53</v>
+        <v>111</v>
+      </c>
+      <c r="C363">
+        <v>0</v>
       </c>
       <c r="D363">
         <v>1</v>
@@ -4402,32 +5496,41 @@
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="B364">
-        <v>224</v>
+        <v>32</v>
       </c>
       <c r="C364">
         <v>1</v>
+      </c>
+      <c r="D364" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="B365">
-        <v>158</v>
+        <v>29</v>
       </c>
       <c r="C365">
         <v>1</v>
+      </c>
+      <c r="D365" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B366">
-        <v>26</v>
+        <v>3</v>
+      </c>
+      <c r="C366">
+        <v>0</v>
       </c>
       <c r="D366">
         <v>1</v>
@@ -4435,21 +5538,27 @@
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="B367">
-        <v>209</v>
-      </c>
-      <c r="D367">
-        <v>1</v>
+        <v>120</v>
+      </c>
+      <c r="C367">
+        <v>1</v>
+      </c>
+      <c r="D367" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="B368">
-        <v>111</v>
+        <v>218</v>
+      </c>
+      <c r="C368">
+        <v>0</v>
       </c>
       <c r="D368">
         <v>1</v>
@@ -4457,197 +5566,251 @@
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="B369">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="C369">
+        <v>0</v>
+      </c>
+      <c r="D369">
         <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="B370">
-        <v>29</v>
+        <v>224</v>
       </c>
       <c r="C370">
         <v>1</v>
+      </c>
+      <c r="D370" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="B371">
-        <v>3</v>
-      </c>
-      <c r="D371">
-        <v>1</v>
+        <v>101</v>
+      </c>
+      <c r="C371">
+        <v>1</v>
+      </c>
+      <c r="D371" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="B372">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="C372">
         <v>1</v>
+      </c>
+      <c r="D372" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B373">
-        <v>218</v>
-      </c>
-      <c r="D373">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="C373">
+        <v>1</v>
+      </c>
+      <c r="D373" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="B374">
-        <v>86</v>
-      </c>
-      <c r="D374">
-        <v>1</v>
+        <v>94</v>
+      </c>
+      <c r="C374">
+        <v>1</v>
+      </c>
+      <c r="D374" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A375">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="B375">
-        <v>224</v>
+        <v>99</v>
       </c>
       <c r="C375">
         <v>1</v>
+      </c>
+      <c r="D375" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A376">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="B376">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="C376">
         <v>1</v>
+      </c>
+      <c r="D376" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A377">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="B377">
-        <v>160</v>
+        <v>236</v>
       </c>
       <c r="C377">
         <v>1</v>
+      </c>
+      <c r="D377" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A378">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="B378">
-        <v>30</v>
+        <v>186</v>
       </c>
       <c r="C378">
         <v>1</v>
+      </c>
+      <c r="D378" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A379">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B379">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="C379">
+        <v>0</v>
+      </c>
+      <c r="D379">
         <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A380">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B380">
-        <v>99</v>
+        <v>149</v>
       </c>
       <c r="C380">
         <v>1</v>
+      </c>
+      <c r="D380" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A381">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="B381">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="C381">
+        <v>0</v>
+      </c>
+      <c r="D381">
         <v>1</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A382">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B382">
-        <v>236</v>
+        <v>90</v>
       </c>
       <c r="C382">
         <v>1</v>
+      </c>
+      <c r="D382" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A383">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B383">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="C383">
         <v>1</v>
+      </c>
+      <c r="D383" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A384">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="B384">
-        <v>117</v>
-      </c>
-      <c r="D384">
-        <v>1</v>
+        <v>97</v>
+      </c>
+      <c r="C384">
+        <v>1</v>
+      </c>
+      <c r="D384" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B385">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C385">
         <v>1</v>
+      </c>
+      <c r="D385" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A386">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="B386">
-        <v>123</v>
+        <v>25</v>
+      </c>
+      <c r="C386">
+        <v>0</v>
       </c>
       <c r="D386">
         <v>1</v>
@@ -4655,54 +5818,69 @@
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A387">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="B387">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="C387">
         <v>1</v>
+      </c>
+      <c r="D387" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A388">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B388">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="C388">
+        <v>0</v>
+      </c>
+      <c r="D388">
         <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A389">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B389">
-        <v>97</v>
+        <v>211</v>
       </c>
       <c r="C389">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D389" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A390">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B390">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="C390">
         <v>1</v>
+      </c>
+      <c r="D390" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A391">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="B391">
-        <v>25</v>
+        <v>200</v>
+      </c>
+      <c r="C391">
+        <v>0</v>
       </c>
       <c r="D391">
         <v>1</v>
@@ -4710,51 +5888,69 @@
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A392">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="B392">
-        <v>5</v>
+        <v>108</v>
       </c>
       <c r="C392">
+        <v>0</v>
+      </c>
+      <c r="D392">
         <v>1</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A393">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="B393">
-        <v>186</v>
-      </c>
-      <c r="D393">
-        <v>1</v>
+        <v>123</v>
+      </c>
+      <c r="C393">
+        <v>1</v>
+      </c>
+      <c r="D393" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A394">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B394">
-        <v>211</v>
+        <v>92</v>
+      </c>
+      <c r="C394">
+        <v>0</v>
+      </c>
+      <c r="D394">
+        <v>1</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A395">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B395">
-        <v>212</v>
+        <v>27</v>
       </c>
       <c r="C395">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="D395" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A396">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="B396">
-        <v>200</v>
+        <v>170</v>
+      </c>
+      <c r="C396">
+        <v>0</v>
       </c>
       <c r="D396">
         <v>1</v>
@@ -4762,32 +5958,41 @@
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A397">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="B397">
-        <v>108</v>
-      </c>
-      <c r="D397">
-        <v>1</v>
+        <v>91</v>
+      </c>
+      <c r="C397">
+        <v>1</v>
+      </c>
+      <c r="D397" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A398">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="B398">
-        <v>123</v>
+        <v>192</v>
       </c>
       <c r="C398">
         <v>1</v>
+      </c>
+      <c r="D398" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A399">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="B399">
-        <v>92</v>
+        <v>9</v>
+      </c>
+      <c r="C399">
+        <v>0</v>
       </c>
       <c r="D399">
         <v>1</v>
@@ -4795,21 +6000,27 @@
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A400">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B400">
-        <v>27</v>
+        <v>198</v>
       </c>
       <c r="C400">
+        <v>0</v>
+      </c>
+      <c r="D400">
         <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="B401">
-        <v>170</v>
+        <v>148</v>
+      </c>
+      <c r="C401">
+        <v>0</v>
       </c>
       <c r="D401">
         <v>1</v>
@@ -4817,32 +6028,41 @@
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="B402">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="C402">
         <v>1</v>
+      </c>
+      <c r="D402" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="B403">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="C403">
+        <v>0</v>
+      </c>
+      <c r="D403">
         <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B404">
-        <v>9</v>
+        <v>76</v>
+      </c>
+      <c r="C404">
+        <v>0</v>
       </c>
       <c r="D404">
         <v>1</v>
@@ -4850,54 +6070,69 @@
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="B405">
-        <v>198</v>
-      </c>
-      <c r="D405">
-        <v>1</v>
+        <v>104</v>
+      </c>
+      <c r="C405">
+        <v>1</v>
+      </c>
+      <c r="D405" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B406">
-        <v>148</v>
-      </c>
-      <c r="D406">
-        <v>1</v>
+        <v>62</v>
+      </c>
+      <c r="C406">
+        <v>1</v>
+      </c>
+      <c r="D406" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="B407">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="C407">
         <v>1</v>
+      </c>
+      <c r="D407" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="B408">
         <v>211</v>
       </c>
-      <c r="D408">
-        <v>1</v>
+      <c r="C408">
+        <v>1</v>
+      </c>
+      <c r="D408" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="B409">
-        <v>76</v>
+        <v>207</v>
+      </c>
+      <c r="C409">
+        <v>0</v>
       </c>
       <c r="D409">
         <v>1</v>
@@ -4905,54 +6140,69 @@
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B410">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="C410">
+        <v>0</v>
+      </c>
+      <c r="D410">
         <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="B411">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C411">
         <v>1</v>
+      </c>
+      <c r="D411" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="B412">
-        <v>67</v>
+        <v>158</v>
       </c>
       <c r="C412">
         <v>1</v>
+      </c>
+      <c r="D412" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="B413">
-        <v>211</v>
+        <v>67</v>
       </c>
       <c r="C413">
         <v>1</v>
+      </c>
+      <c r="D413" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B414">
-        <v>207</v>
+        <v>183</v>
+      </c>
+      <c r="C414">
+        <v>0</v>
       </c>
       <c r="D414">
         <v>1</v>
@@ -4960,76 +6210,97 @@
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="B415">
-        <v>91</v>
-      </c>
-      <c r="D415">
-        <v>1</v>
+        <v>130</v>
+      </c>
+      <c r="C415">
+        <v>1</v>
+      </c>
+      <c r="D415" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="B416">
-        <v>59</v>
+        <v>224</v>
       </c>
       <c r="C416">
+        <v>0</v>
+      </c>
+      <c r="D416">
         <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="B417">
-        <v>158</v>
+        <v>206</v>
       </c>
       <c r="C417">
+        <v>0</v>
+      </c>
+      <c r="D417">
         <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="B418">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="C418">
         <v>1</v>
+      </c>
+      <c r="D418" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A419">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="B419">
-        <v>183</v>
-      </c>
-      <c r="D419">
-        <v>1</v>
+        <v>48</v>
+      </c>
+      <c r="C419">
+        <v>1</v>
+      </c>
+      <c r="D419" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A420">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B420">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="C420">
         <v>1</v>
+      </c>
+      <c r="D420" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A421">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="B421">
-        <v>224</v>
+        <v>245</v>
+      </c>
+      <c r="C421">
+        <v>0</v>
       </c>
       <c r="D421">
         <v>1</v>
@@ -5037,54 +6308,69 @@
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="B422">
-        <v>206</v>
-      </c>
-      <c r="D422">
-        <v>1</v>
+        <v>55</v>
+      </c>
+      <c r="C422">
+        <v>1</v>
+      </c>
+      <c r="D422" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B423">
-        <v>21</v>
+        <v>154</v>
       </c>
       <c r="C423">
         <v>1</v>
+      </c>
+      <c r="D423" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="B424">
-        <v>48</v>
+        <v>243</v>
       </c>
       <c r="C424">
+        <v>0</v>
+      </c>
+      <c r="D424">
         <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="B425">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C425">
         <v>1</v>
+      </c>
+      <c r="D425" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="B426">
-        <v>245</v>
+        <v>102</v>
+      </c>
+      <c r="C426">
+        <v>0</v>
       </c>
       <c r="D426">
         <v>1</v>
@@ -5092,32 +6378,41 @@
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="B427">
-        <v>55</v>
+        <v>249</v>
       </c>
       <c r="C427">
+        <v>0</v>
+      </c>
+      <c r="D427">
         <v>1</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="B428">
-        <v>154</v>
+        <v>237</v>
       </c>
       <c r="C428">
         <v>1</v>
+      </c>
+      <c r="D428" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="B429">
-        <v>243</v>
+        <v>86</v>
+      </c>
+      <c r="C429">
+        <v>0</v>
       </c>
       <c r="D429">
         <v>1</v>
@@ -5125,32 +6420,41 @@
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B430">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="C430">
+        <v>0</v>
+      </c>
+      <c r="D430">
         <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B431">
-        <v>102</v>
-      </c>
-      <c r="D431">
-        <v>1</v>
+        <v>31</v>
+      </c>
+      <c r="C431">
+        <v>1</v>
+      </c>
+      <c r="D431" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="B432">
-        <v>249</v>
+        <v>186</v>
+      </c>
+      <c r="C432">
+        <v>0</v>
       </c>
       <c r="D432">
         <v>1</v>
@@ -5158,65 +6462,83 @@
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="B433">
-        <v>237</v>
+        <v>201</v>
       </c>
       <c r="C433">
+        <v>0</v>
+      </c>
+      <c r="D433">
         <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="B434">
-        <v>86</v>
-      </c>
-      <c r="D434">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="C434">
+        <v>1</v>
+      </c>
+      <c r="D434" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B435">
-        <v>184</v>
-      </c>
-      <c r="D435">
-        <v>1</v>
+        <v>187</v>
+      </c>
+      <c r="C435">
+        <v>1</v>
+      </c>
+      <c r="D435" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="B436">
-        <v>31</v>
+        <v>228</v>
       </c>
       <c r="C436">
         <v>1</v>
+      </c>
+      <c r="D436" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B437">
-        <v>186</v>
-      </c>
-      <c r="D437">
-        <v>1</v>
+        <v>125</v>
+      </c>
+      <c r="C437">
+        <v>1</v>
+      </c>
+      <c r="D437" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="B438">
-        <v>201</v>
+        <v>179</v>
+      </c>
+      <c r="C438">
+        <v>0</v>
       </c>
       <c r="D438">
         <v>1</v>
@@ -5224,153 +6546,195 @@
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="B439">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="C439">
         <v>1</v>
+      </c>
+      <c r="D439" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B440">
-        <v>187</v>
+        <v>218</v>
       </c>
       <c r="C440">
         <v>1</v>
+      </c>
+      <c r="D440" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="B441">
-        <v>228</v>
+        <v>127</v>
       </c>
       <c r="C441">
         <v>1</v>
+      </c>
+      <c r="D441" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B442">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="C442">
         <v>1</v>
+      </c>
+      <c r="D442" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="B443">
-        <v>179</v>
-      </c>
-      <c r="D443">
-        <v>1</v>
+        <v>227</v>
+      </c>
+      <c r="C443">
+        <v>1</v>
+      </c>
+      <c r="D443" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="B444">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="C444">
         <v>1</v>
+      </c>
+      <c r="D444" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B445">
-        <v>218</v>
+        <v>12</v>
       </c>
       <c r="C445">
         <v>1</v>
+      </c>
+      <c r="D445" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="B446">
-        <v>127</v>
+        <v>235</v>
       </c>
       <c r="C446">
+        <v>0</v>
+      </c>
+      <c r="D446">
         <v>1</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A447">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="B447">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="C447">
+        <v>0</v>
+      </c>
+      <c r="D447">
         <v>1</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="B448">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C448">
+        <v>0</v>
+      </c>
+      <c r="D448">
         <v>1</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A449">
-        <v>87</v>
+        <v>1</v>
       </c>
       <c r="B449">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C449">
         <v>1</v>
+      </c>
+      <c r="D449" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A450">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B450">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="C450">
+        <v>0</v>
+      </c>
+      <c r="D450">
         <v>1</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A451">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="B451">
-        <v>235</v>
-      </c>
-      <c r="D451">
-        <v>1</v>
+        <v>133</v>
+      </c>
+      <c r="C451">
+        <v>1</v>
+      </c>
+      <c r="D451" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A452">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="B452">
-        <v>58</v>
+        <v>203</v>
+      </c>
+      <c r="C452">
+        <v>0</v>
       </c>
       <c r="D452">
         <v>1</v>
@@ -5378,10 +6742,13 @@
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A453">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="B453">
-        <v>231</v>
+        <v>249</v>
+      </c>
+      <c r="C453">
+        <v>0</v>
       </c>
       <c r="D453">
         <v>1</v>
@@ -5389,54 +6756,69 @@
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A454">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="B454">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="C454">
         <v>1</v>
+      </c>
+      <c r="D454" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A455">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B455">
-        <v>101</v>
+        <v>32</v>
+      </c>
+      <c r="C455">
+        <v>1</v>
       </c>
       <c r="D455">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A456">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="B456">
-        <v>133</v>
+        <v>202</v>
       </c>
       <c r="C456">
         <v>1</v>
+      </c>
+      <c r="D456">
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A457">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="B457">
-        <v>203</v>
+        <v>231</v>
+      </c>
+      <c r="C457">
+        <v>1</v>
       </c>
       <c r="D457">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A458">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="B458">
-        <v>249</v>
+        <v>137</v>
+      </c>
+      <c r="C458">
+        <v>0</v>
       </c>
       <c r="D458">
         <v>1</v>
@@ -5444,54 +6826,69 @@
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A459">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B459">
-        <v>15</v>
+        <v>168</v>
       </c>
       <c r="C459">
+        <v>0</v>
+      </c>
+      <c r="D459">
         <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A460">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B460">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C460">
         <v>1</v>
+      </c>
+      <c r="D460">
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A461">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="B461">
-        <v>202</v>
+        <v>20</v>
       </c>
       <c r="C461">
+        <v>0</v>
+      </c>
+      <c r="D461">
         <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A462">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="B462">
-        <v>231</v>
+        <v>188</v>
       </c>
       <c r="C462">
+        <v>0</v>
+      </c>
+      <c r="D462">
         <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A463">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="B463">
-        <v>137</v>
+        <v>241</v>
+      </c>
+      <c r="C463">
+        <v>0</v>
       </c>
       <c r="D463">
         <v>1</v>
@@ -5499,32 +6896,41 @@
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A464">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="B464">
-        <v>168</v>
+        <v>130</v>
+      </c>
+      <c r="C464">
+        <v>1</v>
       </c>
       <c r="D464">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A465">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="B465">
-        <v>30</v>
+        <v>206</v>
       </c>
       <c r="C465">
         <v>1</v>
+      </c>
+      <c r="D465">
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A466">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="B466">
-        <v>20</v>
+        <v>168</v>
+      </c>
+      <c r="C466">
+        <v>0</v>
       </c>
       <c r="D466">
         <v>1</v>
@@ -5532,21 +6938,27 @@
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A467">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B467">
-        <v>188</v>
+        <v>142</v>
+      </c>
+      <c r="C467">
+        <v>1</v>
       </c>
       <c r="D467">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="B468">
-        <v>241</v>
+        <v>33</v>
+      </c>
+      <c r="C468">
+        <v>0</v>
       </c>
       <c r="D468">
         <v>1</v>
@@ -5554,54 +6966,69 @@
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A469">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B469">
-        <v>130</v>
+        <v>216</v>
       </c>
       <c r="C469">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D469">
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="B470">
-        <v>206</v>
+        <v>155</v>
       </c>
       <c r="C470">
+        <v>0</v>
+      </c>
+      <c r="D470">
         <v>1</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B471">
-        <v>168</v>
+        <v>38</v>
+      </c>
+      <c r="C471">
+        <v>1</v>
       </c>
       <c r="D471">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B472">
-        <v>142</v>
+        <v>96</v>
       </c>
       <c r="C472">
         <v>1</v>
+      </c>
+      <c r="D472">
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A473">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B473">
-        <v>33</v>
+        <v>117</v>
+      </c>
+      <c r="C473">
+        <v>0</v>
       </c>
       <c r="D473">
         <v>1</v>
@@ -5609,95 +7036,125 @@
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="B474">
-        <v>216</v>
+        <v>143</v>
+      </c>
+      <c r="C474">
+        <v>1</v>
+      </c>
+      <c r="D474">
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B475">
-        <v>155</v>
+        <v>93</v>
+      </c>
+      <c r="C475">
+        <v>1</v>
       </c>
       <c r="D475">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A476">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B476">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C476">
         <v>1</v>
+      </c>
+      <c r="D476">
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="B477">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="C477">
+        <v>0</v>
+      </c>
+      <c r="D477">
         <v>1</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="B478">
-        <v>117</v>
+        <v>24</v>
+      </c>
+      <c r="C478">
+        <v>1</v>
       </c>
       <c r="D478">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="B479">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C479">
+        <v>0</v>
+      </c>
+      <c r="D479">
         <v>1</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A480">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B480">
-        <v>93</v>
+        <v>229</v>
       </c>
       <c r="C480">
         <v>1</v>
+      </c>
+      <c r="D480">
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A481">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="B481">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="C481">
         <v>1</v>
+      </c>
+      <c r="D481">
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A482">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B482">
-        <v>60</v>
+        <v>133</v>
+      </c>
+      <c r="C482">
+        <v>0</v>
       </c>
       <c r="D482">
         <v>1</v>
@@ -5705,54 +7162,69 @@
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A483">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B483">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="C483">
+        <v>0</v>
+      </c>
+      <c r="D483">
         <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A484">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B484">
-        <v>138</v>
+        <v>4</v>
+      </c>
+      <c r="C484">
+        <v>1</v>
       </c>
       <c r="D484">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A485">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B485">
-        <v>229</v>
+        <v>44</v>
       </c>
       <c r="C485">
         <v>1</v>
+      </c>
+      <c r="D485">
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A486">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="B486">
-        <v>126</v>
+        <v>206</v>
       </c>
       <c r="C486">
         <v>1</v>
+      </c>
+      <c r="D486">
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A487">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="B487">
-        <v>133</v>
+        <v>218</v>
+      </c>
+      <c r="C487">
+        <v>0</v>
       </c>
       <c r="D487">
         <v>1</v>
@@ -5760,145 +7232,114 @@
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A488">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="B488">
-        <v>98</v>
+        <v>160</v>
+      </c>
+      <c r="C488">
+        <v>1</v>
       </c>
       <c r="D488">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A489">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="B489">
-        <v>4</v>
+        <v>84</v>
       </c>
       <c r="C489">
         <v>1</v>
+      </c>
+      <c r="D489">
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A490">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="B490">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C490">
+        <v>0</v>
+      </c>
+      <c r="D490">
         <v>1</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A491">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="B491">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C491">
         <v>1</v>
+      </c>
+      <c r="D491">
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A492">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="B492">
-        <v>218</v>
+        <v>213</v>
+      </c>
+      <c r="C492">
+        <v>1</v>
       </c>
       <c r="D492">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A493">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="B493">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="C493">
         <v>1</v>
+      </c>
+      <c r="D493">
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A494">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="B494">
-        <v>84</v>
+        <v>176</v>
       </c>
       <c r="C494">
         <v>1</v>
+      </c>
+      <c r="D494">
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A495">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B495">
-        <v>50</v>
+        <v>235</v>
+      </c>
+      <c r="C495">
+        <v>1</v>
       </c>
       <c r="D495">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A496">
-        <v>25</v>
-      </c>
-      <c r="B496">
-        <v>207</v>
-      </c>
-      <c r="C496">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A497">
-        <v>77</v>
-      </c>
-      <c r="B497">
-        <v>213</v>
-      </c>
-      <c r="C497">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A498">
-        <v>84</v>
-      </c>
-      <c r="B498">
-        <v>193</v>
-      </c>
-      <c r="C498">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A499">
-        <v>83</v>
-      </c>
-      <c r="B499">
-        <v>176</v>
-      </c>
-      <c r="C499">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A500">
-        <v>39</v>
-      </c>
-      <c r="B500">
-        <v>235</v>
-      </c>
-      <c r="C500">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/bdd_excel/Jugements.xlsx
+++ b/bdd_excel/Jugements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/florianbour/Desktop/ENSEIRB/2A/SGBD/sgbd-jeux/bdd_excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucap\Desktop\Ecole\ENSEIRB\S7\SGBD\Projet\bdd_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF6857C4-0608-CE4F-9116-64569B264B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02216CAB-2142-4AE7-8469-171C62862943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16000" xr2:uid="{F2D48568-1043-CF4E-BD3E-7A895C5B1461}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F2D48568-1043-CF4E-BD3E-7A895C5B1461}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -406,13 +406,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B48E42AD-71A0-8A48-BA5D-67E7D05CA41A}">
   <dimension ref="A1:D495"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A448" workbookViewId="0">
+      <selection activeCell="A462" sqref="A462"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -426,7 +426,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>53</v>
       </c>
@@ -440,7 +440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>79</v>
       </c>
@@ -454,7 +454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>41</v>
       </c>
@@ -468,7 +468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>13</v>
       </c>
@@ -482,7 +482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>23</v>
       </c>
@@ -496,7 +496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>21</v>
       </c>
@@ -510,7 +510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>11</v>
       </c>
@@ -524,7 +524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>14</v>
       </c>
@@ -538,7 +538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>62</v>
       </c>
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>7</v>
       </c>
@@ -566,7 +566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>25</v>
       </c>
@@ -580,7 +580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>18</v>
       </c>
@@ -594,7 +594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>67</v>
       </c>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>9</v>
       </c>
@@ -622,7 +622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>39</v>
       </c>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>23</v>
       </c>
@@ -650,7 +650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>13</v>
       </c>
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>42</v>
       </c>
@@ -678,7 +678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>92</v>
       </c>
@@ -692,7 +692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>70</v>
       </c>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>29</v>
       </c>
@@ -720,7 +720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>86</v>
       </c>
@@ -734,7 +734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>78</v>
       </c>
@@ -748,7 +748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>18</v>
       </c>
@@ -762,7 +762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>48</v>
       </c>
@@ -776,7 +776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>4</v>
       </c>
@@ -790,7 +790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>17</v>
       </c>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>95</v>
       </c>
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>96</v>
       </c>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>11</v>
       </c>
@@ -846,7 +846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>79</v>
       </c>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>55</v>
       </c>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>85</v>
       </c>
@@ -888,7 +888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>77</v>
       </c>
@@ -902,7 +902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>22</v>
       </c>
@@ -916,7 +916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>84</v>
       </c>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>51</v>
       </c>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>5</v>
       </c>
@@ -958,7 +958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>4</v>
       </c>
@@ -972,7 +972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>32</v>
       </c>
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>94</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>51</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>39</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>37</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>33</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>71</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>51</v>
       </c>
@@ -1098,9 +1098,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B50">
         <v>15</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>85</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>39</v>
       </c>
@@ -1140,7 +1140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>55</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>10</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>7</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>25</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>19</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>76</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>23</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>76</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>26</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>28</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>52</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>98</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>44</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>44</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>22</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>43</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>21</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>33</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>87</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>28</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>19</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>54</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>10</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>35</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>13</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>33</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>100</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>23</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>88</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>85</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>78</v>
       </c>
@@ -1588,7 +1588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>66</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>28</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>42</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>31</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>12</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>68</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>9</v>
       </c>
@@ -1686,7 +1686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>49</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>31</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>29</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>90</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>47</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>39</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>1</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>38</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>47</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>77</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>68</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>54</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>64</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>92</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>60</v>
       </c>
@@ -1896,7 +1896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>89</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>40</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>79</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>98</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>27</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>10</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>18</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>65</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>69</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>55</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>34</v>
       </c>
@@ -2050,7 +2050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>87</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>22</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>26</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>26</v>
       </c>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>50</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>19</v>
       </c>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>70</v>
       </c>
@@ -2148,7 +2148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>60</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>80</v>
       </c>
@@ -2176,7 +2176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>14</v>
       </c>
@@ -2190,7 +2190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>42</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>68</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>85</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>100</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>90</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>53</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>61</v>
       </c>
@@ -2288,7 +2288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>22</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>99</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>39</v>
       </c>
@@ -2330,7 +2330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>100</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>13</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>59</v>
       </c>
@@ -2372,7 +2372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>49</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>70</v>
       </c>
@@ -2400,7 +2400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>24</v>
       </c>
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>89</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>32</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>61</v>
       </c>
@@ -2456,7 +2456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>58</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>95</v>
       </c>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>21</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>53</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>8</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>13</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>62</v>
       </c>
@@ -2554,7 +2554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>69</v>
       </c>
@@ -2568,7 +2568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>54</v>
       </c>
@@ -2582,7 +2582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>66</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>6</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>46</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>49</v>
       </c>
@@ -2638,7 +2638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>31</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>42</v>
       </c>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>77</v>
       </c>
@@ -2680,7 +2680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>28</v>
       </c>
@@ -2694,7 +2694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>26</v>
       </c>
@@ -2708,7 +2708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>95</v>
       </c>
@@ -2722,7 +2722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>62</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>29</v>
       </c>
@@ -2750,7 +2750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>80</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>36</v>
       </c>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>91</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>23</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>49</v>
       </c>
@@ -2820,7 +2820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>35</v>
       </c>
@@ -2834,7 +2834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>69</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>30</v>
       </c>
@@ -2862,7 +2862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>2</v>
       </c>
@@ -2876,7 +2876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>43</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>34</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>81</v>
       </c>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>17</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>53</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>7</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>3</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>5</v>
       </c>
@@ -2988,7 +2988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>22</v>
       </c>
@@ -3002,7 +3002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>41</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>11</v>
       </c>
@@ -3030,7 +3030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>32</v>
       </c>
@@ -3044,7 +3044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>21</v>
       </c>
@@ -3058,7 +3058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>33</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>11</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>42</v>
       </c>
@@ -3100,7 +3100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>21</v>
       </c>
@@ -3114,7 +3114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>65</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>5</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>13</v>
       </c>
@@ -3156,7 +3156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>30</v>
       </c>
@@ -3170,7 +3170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>34</v>
       </c>
@@ -3184,7 +3184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>68</v>
       </c>
@@ -3198,7 +3198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>80</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>14</v>
       </c>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>15</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>7</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>70</v>
       </c>
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>75</v>
       </c>
@@ -3282,7 +3282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>80</v>
       </c>
@@ -3296,7 +3296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>2</v>
       </c>
@@ -3310,7 +3310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>68</v>
       </c>
@@ -3324,7 +3324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>92</v>
       </c>
@@ -3338,7 +3338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>66</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>37</v>
       </c>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>63</v>
       </c>
@@ -3380,7 +3380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>43</v>
       </c>
@@ -3394,7 +3394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>46</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>79</v>
       </c>
@@ -3422,7 +3422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>6</v>
       </c>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>91</v>
       </c>
@@ -3450,7 +3450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>56</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>33</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>5</v>
       </c>
@@ -3492,7 +3492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>55</v>
       </c>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>78</v>
       </c>
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>33</v>
       </c>
@@ -3534,7 +3534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>4</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>48</v>
       </c>
@@ -3562,7 +3562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>78</v>
       </c>
@@ -3576,7 +3576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>47</v>
       </c>
@@ -3590,7 +3590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>53</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>35</v>
       </c>
@@ -3618,7 +3618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>2</v>
       </c>
@@ -3632,7 +3632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>52</v>
       </c>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>97</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>59</v>
       </c>
@@ -3674,7 +3674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>96</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>70</v>
       </c>
@@ -3702,7 +3702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>88</v>
       </c>
@@ -3716,7 +3716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>29</v>
       </c>
@@ -3730,7 +3730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>53</v>
       </c>
@@ -3744,7 +3744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>82</v>
       </c>
@@ -3758,7 +3758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>23</v>
       </c>
@@ -3772,7 +3772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>20</v>
       </c>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>7</v>
       </c>
@@ -3800,7 +3800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>64</v>
       </c>
@@ -3814,7 +3814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>86</v>
       </c>
@@ -3828,7 +3828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>34</v>
       </c>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>2</v>
       </c>
@@ -3856,7 +3856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>64</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>8</v>
       </c>
@@ -3884,7 +3884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>70</v>
       </c>
@@ -3898,7 +3898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>52</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>22</v>
       </c>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>91</v>
       </c>
@@ -3940,7 +3940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>72</v>
       </c>
@@ -3954,7 +3954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>36</v>
       </c>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>12</v>
       </c>
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>49</v>
       </c>
@@ -3996,7 +3996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>52</v>
       </c>
@@ -4010,7 +4010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>13</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>95</v>
       </c>
@@ -4038,7 +4038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>87</v>
       </c>
@@ -4052,7 +4052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>12</v>
       </c>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>18</v>
       </c>
@@ -4080,7 +4080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>27</v>
       </c>
@@ -4094,7 +4094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>82</v>
       </c>
@@ -4108,7 +4108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>92</v>
       </c>
@@ -4122,7 +4122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>82</v>
       </c>
@@ -4136,9 +4136,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A267">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B267">
         <v>47</v>
@@ -4150,7 +4150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>18</v>
       </c>
@@ -4164,7 +4164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>60</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>45</v>
       </c>
@@ -4192,7 +4192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>74</v>
       </c>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>37</v>
       </c>
@@ -4220,7 +4220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>16</v>
       </c>
@@ -4234,7 +4234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>75</v>
       </c>
@@ -4248,7 +4248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A275">
         <v>5</v>
       </c>
@@ -4262,7 +4262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>40</v>
       </c>
@@ -4276,7 +4276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A277">
         <v>62</v>
       </c>
@@ -4290,7 +4290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A278">
         <v>61</v>
       </c>
@@ -4304,7 +4304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A279">
         <v>39</v>
       </c>
@@ -4318,7 +4318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A280">
         <v>68</v>
       </c>
@@ -4332,7 +4332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>18</v>
       </c>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A282">
         <v>75</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A283">
         <v>86</v>
       </c>
@@ -4374,7 +4374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A284">
         <v>95</v>
       </c>
@@ -4388,7 +4388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A285">
         <v>99</v>
       </c>
@@ -4402,7 +4402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A286">
         <v>81</v>
       </c>
@@ -4416,7 +4416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A287">
         <v>19</v>
       </c>
@@ -4430,7 +4430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A288">
         <v>10</v>
       </c>
@@ -4444,7 +4444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A289">
         <v>6</v>
       </c>
@@ -4458,7 +4458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A290">
         <v>43</v>
       </c>
@@ -4472,7 +4472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A291">
         <v>13</v>
       </c>
@@ -4486,7 +4486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A292">
         <v>37</v>
       </c>
@@ -4500,7 +4500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A293">
         <v>14</v>
       </c>
@@ -4514,7 +4514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A294">
         <v>32</v>
       </c>
@@ -4528,7 +4528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A295">
         <v>20</v>
       </c>
@@ -4542,7 +4542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A296">
         <v>42</v>
       </c>
@@ -4556,7 +4556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A297">
         <v>4</v>
       </c>
@@ -4570,7 +4570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A298">
         <v>76</v>
       </c>
@@ -4584,7 +4584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A299">
         <v>76</v>
       </c>
@@ -4598,7 +4598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A300">
         <v>74</v>
       </c>
@@ -4612,7 +4612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A301">
         <v>4</v>
       </c>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A302">
         <v>67</v>
       </c>
@@ -4640,7 +4640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A303">
         <v>68</v>
       </c>
@@ -4654,7 +4654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A304">
         <v>90</v>
       </c>
@@ -4668,7 +4668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A305">
         <v>10</v>
       </c>
@@ -4682,7 +4682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A306">
         <v>80</v>
       </c>
@@ -4696,7 +4696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A307">
         <v>19</v>
       </c>
@@ -4710,7 +4710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A308">
         <v>95</v>
       </c>
@@ -4724,7 +4724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A309">
         <v>8</v>
       </c>
@@ -4738,7 +4738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A310">
         <v>29</v>
       </c>
@@ -4752,7 +4752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A311">
         <v>69</v>
       </c>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A312">
         <v>46</v>
       </c>
@@ -4780,7 +4780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A313">
         <v>93</v>
       </c>
@@ -4794,7 +4794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A314">
         <v>65</v>
       </c>
@@ -4808,7 +4808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A315">
         <v>89</v>
       </c>
@@ -4822,7 +4822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A316">
         <v>69</v>
       </c>
@@ -4836,7 +4836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A317">
         <v>49</v>
       </c>
@@ -4850,7 +4850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A318">
         <v>14</v>
       </c>
@@ -4864,7 +4864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A319">
         <v>45</v>
       </c>
@@ -4878,7 +4878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A320">
         <v>9</v>
       </c>
@@ -4892,7 +4892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A321">
         <v>44</v>
       </c>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A322">
         <v>34</v>
       </c>
@@ -4920,7 +4920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A323">
         <v>21</v>
       </c>
@@ -4934,7 +4934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A324">
         <v>25</v>
       </c>
@@ -4948,7 +4948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A325">
         <v>31</v>
       </c>
@@ -4962,7 +4962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A326">
         <v>54</v>
       </c>
@@ -4976,7 +4976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A327">
         <v>63</v>
       </c>
@@ -4990,7 +4990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A328">
         <v>59</v>
       </c>
@@ -5004,7 +5004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A329">
         <v>5</v>
       </c>
@@ -5018,7 +5018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A330">
         <v>43</v>
       </c>
@@ -5032,7 +5032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A331">
         <v>48</v>
       </c>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A332">
         <v>36</v>
       </c>
@@ -5060,7 +5060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A333">
         <v>5</v>
       </c>
@@ -5074,7 +5074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A334">
         <v>63</v>
       </c>
@@ -5088,7 +5088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A335">
         <v>83</v>
       </c>
@@ -5102,7 +5102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A336">
         <v>17</v>
       </c>
@@ -5116,7 +5116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A337">
         <v>10</v>
       </c>
@@ -5130,7 +5130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A338">
         <v>75</v>
       </c>
@@ -5144,7 +5144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A339">
         <v>47</v>
       </c>
@@ -5158,7 +5158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A340">
         <v>85</v>
       </c>
@@ -5172,7 +5172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A341">
         <v>35</v>
       </c>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A342">
         <v>83</v>
       </c>
@@ -5200,7 +5200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A343">
         <v>41</v>
       </c>
@@ -5214,7 +5214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A344">
         <v>67</v>
       </c>
@@ -5228,7 +5228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A345">
         <v>15</v>
       </c>
@@ -5242,7 +5242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A346">
         <v>81</v>
       </c>
@@ -5256,7 +5256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A347">
         <v>43</v>
       </c>
@@ -5270,7 +5270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A348">
         <v>24</v>
       </c>
@@ -5284,7 +5284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A349">
         <v>15</v>
       </c>
@@ -5298,7 +5298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A350">
         <v>55</v>
       </c>
@@ -5312,7 +5312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A351">
         <v>32</v>
       </c>
@@ -5326,7 +5326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A352">
         <v>61</v>
       </c>
@@ -5340,7 +5340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A353">
         <v>43</v>
       </c>
@@ -5354,7 +5354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A354">
         <v>66</v>
       </c>
@@ -5368,7 +5368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A355">
         <v>66</v>
       </c>
@@ -5382,7 +5382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A356">
         <v>54</v>
       </c>
@@ -5396,7 +5396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A357">
         <v>46</v>
       </c>
@@ -5410,7 +5410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A358">
         <v>5</v>
       </c>
@@ -5424,7 +5424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A359">
         <v>21</v>
       </c>
@@ -5438,7 +5438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A360">
         <v>75</v>
       </c>
@@ -5452,7 +5452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A361">
         <v>38</v>
       </c>
@@ -5466,7 +5466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A362">
         <v>79</v>
       </c>
@@ -5480,7 +5480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A363">
         <v>44</v>
       </c>
@@ -5494,7 +5494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A364">
         <v>98</v>
       </c>
@@ -5508,7 +5508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A365">
         <v>89</v>
       </c>
@@ -5522,7 +5522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A366">
         <v>47</v>
       </c>
@@ -5536,7 +5536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A367">
         <v>95</v>
       </c>
@@ -5550,7 +5550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A368">
         <v>11</v>
       </c>
@@ -5564,7 +5564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A369">
         <v>22</v>
       </c>
@@ -5578,7 +5578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A370">
         <v>55</v>
       </c>
@@ -5592,7 +5592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A371">
         <v>21</v>
       </c>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A372">
         <v>55</v>
       </c>
@@ -5620,7 +5620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A373">
         <v>34</v>
       </c>
@@ -5634,7 +5634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A374">
         <v>52</v>
       </c>
@@ -5648,7 +5648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A375">
         <v>11</v>
       </c>
@@ -5662,7 +5662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A376">
         <v>100</v>
       </c>
@@ -5676,7 +5676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A377">
         <v>38</v>
       </c>
@@ -5690,7 +5690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A378">
         <v>55</v>
       </c>
@@ -5704,7 +5704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A379">
         <v>59</v>
       </c>
@@ -5718,7 +5718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A380">
         <v>22</v>
       </c>
@@ -5732,7 +5732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A381">
         <v>27</v>
       </c>
@@ -5746,7 +5746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A382">
         <v>24</v>
       </c>
@@ -5760,7 +5760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A383">
         <v>50</v>
       </c>
@@ -5774,7 +5774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A384">
         <v>7</v>
       </c>
@@ -5788,7 +5788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A385">
         <v>26</v>
       </c>
@@ -5802,7 +5802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A386">
         <v>54</v>
       </c>
@@ -5816,7 +5816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A387">
         <v>78</v>
       </c>
@@ -5830,7 +5830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A388">
         <v>30</v>
       </c>
@@ -5844,7 +5844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A389">
         <v>26</v>
       </c>
@@ -5858,7 +5858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A390">
         <v>41</v>
       </c>
@@ -5872,7 +5872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A391">
         <v>67</v>
       </c>
@@ -5886,7 +5886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A392">
         <v>18</v>
       </c>
@@ -5900,7 +5900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A393">
         <v>78</v>
       </c>
@@ -5914,7 +5914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A394">
         <v>17</v>
       </c>
@@ -5928,7 +5928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A395">
         <v>37</v>
       </c>
@@ -5942,7 +5942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A396">
         <v>85</v>
       </c>
@@ -5956,7 +5956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A397">
         <v>59</v>
       </c>
@@ -5970,7 +5970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A398">
         <v>97</v>
       </c>
@@ -5984,7 +5984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A399">
         <v>80</v>
       </c>
@@ -5998,7 +5998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A400">
         <v>52</v>
       </c>
@@ -6012,7 +6012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A401">
         <v>9</v>
       </c>
@@ -6026,7 +6026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A402">
         <v>83</v>
       </c>
@@ -6040,7 +6040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A403">
         <v>77</v>
       </c>
@@ -6054,7 +6054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A404">
         <v>86</v>
       </c>
@@ -6068,7 +6068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A405">
         <v>1</v>
       </c>
@@ -6082,7 +6082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A406">
         <v>22</v>
       </c>
@@ -6096,7 +6096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A407">
         <v>19</v>
       </c>
@@ -6110,7 +6110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A408">
         <v>91</v>
       </c>
@@ -6124,7 +6124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A409">
         <v>8</v>
       </c>
@@ -6138,7 +6138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A410">
         <v>31</v>
       </c>
@@ -6152,7 +6152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A411">
         <v>46</v>
       </c>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A412">
         <v>64</v>
       </c>
@@ -6180,7 +6180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A413">
         <v>55</v>
       </c>
@@ -6194,7 +6194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A414">
         <v>20</v>
       </c>
@@ -6208,7 +6208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A415">
         <v>67</v>
       </c>
@@ -6222,7 +6222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A416">
         <v>83</v>
       </c>
@@ -6236,7 +6236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A417">
         <v>99</v>
       </c>
@@ -6250,7 +6250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A418">
         <v>13</v>
       </c>
@@ -6264,7 +6264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A419">
         <v>75</v>
       </c>
@@ -6278,7 +6278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A420">
         <v>62</v>
       </c>
@@ -6292,7 +6292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A421">
         <v>20</v>
       </c>
@@ -6306,7 +6306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A422">
         <v>16</v>
       </c>
@@ -6320,7 +6320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A423">
         <v>29</v>
       </c>
@@ -6334,7 +6334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A424">
         <v>1</v>
       </c>
@@ -6348,7 +6348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A425">
         <v>40</v>
       </c>
@@ -6362,7 +6362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A426">
         <v>72</v>
       </c>
@@ -6376,9 +6376,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A427">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B427">
         <v>249</v>
@@ -6390,7 +6390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A428">
         <v>56</v>
       </c>
@@ -6404,7 +6404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A429">
         <v>97</v>
       </c>
@@ -6418,7 +6418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A430">
         <v>34</v>
       </c>
@@ -6432,7 +6432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A431">
         <v>63</v>
       </c>
@@ -6446,7 +6446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A432">
         <v>49</v>
       </c>
@@ -6460,7 +6460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A433">
         <v>98</v>
       </c>
@@ -6474,7 +6474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A434">
         <v>43</v>
       </c>
@@ -6488,7 +6488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A435">
         <v>51</v>
       </c>
@@ -6502,7 +6502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A436">
         <v>23</v>
       </c>
@@ -6516,7 +6516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A437">
         <v>38</v>
       </c>
@@ -6530,7 +6530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A438">
         <v>38</v>
       </c>
@@ -6544,7 +6544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A439">
         <v>61</v>
       </c>
@@ -6558,7 +6558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A440">
         <v>33</v>
       </c>
@@ -6572,7 +6572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A441">
         <v>88</v>
       </c>
@@ -6586,7 +6586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A442">
         <v>32</v>
       </c>
@@ -6600,7 +6600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A443">
         <v>98</v>
       </c>
@@ -6614,7 +6614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A444">
         <v>87</v>
       </c>
@@ -6628,9 +6628,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A445">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="B445">
         <v>12</v>
@@ -6642,7 +6642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A446">
         <v>73</v>
       </c>
@@ -6656,7 +6656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A447">
         <v>88</v>
       </c>
@@ -6670,7 +6670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A448">
         <v>65</v>
       </c>
@@ -6684,7 +6684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A449">
         <v>1</v>
       </c>
@@ -6698,7 +6698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A450">
         <v>27</v>
       </c>
@@ -6712,7 +6712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A451">
         <v>29</v>
       </c>
@@ -6726,7 +6726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A452">
         <v>32</v>
       </c>
@@ -6740,7 +6740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A453">
         <v>9</v>
       </c>
@@ -6754,7 +6754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A454">
         <v>41</v>
       </c>
@@ -6768,7 +6768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A455">
         <v>19</v>
       </c>
@@ -6782,7 +6782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A456">
         <v>63</v>
       </c>
@@ -6796,7 +6796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A457">
         <v>70</v>
       </c>
@@ -6810,7 +6810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A458">
         <v>74</v>
       </c>
@@ -6824,7 +6824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A459">
         <v>54</v>
       </c>
@@ -6838,7 +6838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A460">
         <v>29</v>
       </c>
@@ -6852,9 +6852,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A461">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B461">
         <v>20</v>
@@ -6866,7 +6866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A462">
         <v>3</v>
       </c>
@@ -6880,7 +6880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A463">
         <v>50</v>
       </c>
@@ -6894,7 +6894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A464">
         <v>100</v>
       </c>
@@ -6908,7 +6908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A465">
         <v>73</v>
       </c>
@@ -6922,7 +6922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A466">
         <v>74</v>
       </c>
@@ -6936,7 +6936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A467">
         <v>19</v>
       </c>
@@ -6950,7 +6950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A468">
         <v>14</v>
       </c>
@@ -6964,7 +6964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A469">
         <v>93</v>
       </c>
@@ -6978,7 +6978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A470">
         <v>53</v>
       </c>
@@ -6992,7 +6992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A471">
         <v>73</v>
       </c>
@@ -7006,7 +7006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A472">
         <v>74</v>
       </c>
@@ -7020,7 +7020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A473">
         <v>6</v>
       </c>
@@ -7034,7 +7034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A474">
         <v>70</v>
       </c>
@@ -7048,7 +7048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A475">
         <v>50</v>
       </c>
@@ -7062,7 +7062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A476">
         <v>67</v>
       </c>
@@ -7076,7 +7076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A477">
         <v>14</v>
       </c>
@@ -7090,7 +7090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A478">
         <v>93</v>
       </c>
@@ -7104,7 +7104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A479">
         <v>26</v>
       </c>
@@ -7118,7 +7118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A480">
         <v>8</v>
       </c>
@@ -7132,7 +7132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A481">
         <v>33</v>
       </c>
@@ -7146,7 +7146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A482">
         <v>4</v>
       </c>
@@ -7160,7 +7160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A483">
         <v>90</v>
       </c>
@@ -7174,7 +7174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A484">
         <v>15</v>
       </c>
@@ -7188,7 +7188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A485">
         <v>24</v>
       </c>
@@ -7202,7 +7202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A486">
         <v>68</v>
       </c>
@@ -7216,7 +7216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A487">
         <v>62</v>
       </c>
@@ -7230,7 +7230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A488">
         <v>28</v>
       </c>
@@ -7244,7 +7244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A489">
         <v>46</v>
       </c>
@@ -7258,7 +7258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A490">
         <v>53</v>
       </c>
@@ -7272,7 +7272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A491">
         <v>25</v>
       </c>
@@ -7286,7 +7286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A492">
         <v>77</v>
       </c>
@@ -7300,7 +7300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A493">
         <v>84</v>
       </c>
@@ -7314,7 +7314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A494">
         <v>83</v>
       </c>
@@ -7328,7 +7328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A495">
         <v>39</v>
       </c>
